--- a/app/data/doctor_schedule.xlsx
+++ b/app/data/doctor_schedule.xlsx
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">

--- a/app/data/doctor_schedule.xlsx
+++ b/app/data/doctor_schedule.xlsx
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
